--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_4_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_4_sawtooth_10_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.79000000000012</v>
+        <v>22.98000000000015</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>6.772719052250409e-10</v>
+        <v>1.617237566087226e-09</v>
       </c>
       <c r="H2" t="n">
-        <v>4.134867306618577e-09</v>
+        <v>2.654740167533263e-08</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>6.15391942815079</v>
+        <v>5.949550844899699</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.043160581932288, 8.264678274369292]</t>
+          <t>[3.6492973035673586, 8.24980438623204]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.889209833016992e-08</v>
+        <v>5.537856111459405e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>1.889209833016992e-08</v>
+        <v>5.537856111459405e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.446579199851156</v>
+        <v>-1.207579158136618</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8616845354606184, -1.0314738642416934]</t>
+          <t>[-1.610105544182157, -0.8050527720910781]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.580446967215266e-11</v>
+        <v>7.528792922428806e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>5.160893934430533e-11</v>
+        <v>1.505758584485761e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>10.78442155306686</v>
+        <v>10.61161639255713</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.499012843673682, 12.069830262460044]</t>
+          <t>[9.337348694200646, 11.885884090913606]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.246946946946974</v>
+        <v>4.416576576576606</v>
       </c>
       <c r="X2" t="n">
-        <v>3.741301301301319</v>
+        <v>2.944384384384402</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.752592592592629</v>
+        <v>5.888768768768809</v>
       </c>
     </row>
     <row r="3">
@@ -658,47 +658,47 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.675771047071066e-13</v>
+        <v>1.736207622116126e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>2.730744923114385e-11</v>
+        <v>2.654740167533263e-08</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.53404115454871</v>
+        <v>5.805253417197701</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[4.638949043150596, 8.429133265946824]</t>
+          <t>[3.6973101559739234, 7.913196678421478]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.678968241160874e-11</v>
+        <v>9.915286058870265e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.357936482321747e-11</v>
+        <v>1.983057211774053e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1006315965113851</v>
+        <v>-0.1886842434588463</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.4276842851733855, 0.22642109215061534]</t>
+          <t>[-0.6163685286322318, 0.23900004171453926]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.5457323385675092</v>
+        <v>0.3864383678631347</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5457323385675092</v>
+        <v>0.3864383678631347</v>
       </c>
       <c r="S3" t="n">
-        <v>10.55763597456255</v>
+        <v>10.17317660988999</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.381285187062502, 11.733986762062607]</t>
+          <t>[8.932285947146102, 11.414067272633883]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3738138138138183</v>
+        <v>0.7009009009009048</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.8410810810810874</v>
+        <v>-0.8878078078078193</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.588708708708724</v>
+        <v>2.289609609609629</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_4_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_4_sawtooth_10_.xlsx
@@ -577,47 +577,47 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.617237566087226e-09</v>
+        <v>7.519842537551114e-08</v>
       </c>
       <c r="H2" t="n">
-        <v>2.654740167533263e-08</v>
+        <v>3.613609217731191e-07</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.949550844899699</v>
+        <v>5.298741799200332</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.6492973035673586, 8.24980438623204]</t>
+          <t>[3.0839446219241626, 7.513538976476502]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.537856111459405e-07</v>
+        <v>3.47253906940459e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>5.537856111459405e-07</v>
+        <v>3.47253906940459e-06</v>
       </c>
       <c r="O2" t="n">
         <v>-1.207579158136618</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.610105544182157, -0.8050527720910781]</t>
+          <t>[-1.685579241565696, -0.729579074707539]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>7.528792922428806e-09</v>
+        <v>9.908346110254485e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>1.505758584485761e-08</v>
+        <v>1.981669222050897e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>10.61161639255713</v>
+        <v>10.19740333284548</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.337348694200646, 11.885884090913606]</t>
+          <t>[8.929971202426415, 11.46483546326455]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>4.416576576576606</v>
       </c>
       <c r="X2" t="n">
-        <v>2.944384384384402</v>
+        <v>2.668348348348363</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.888768768768809</v>
+        <v>6.16480480480485</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,55 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.34000000000021</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.736207622116126e-09</v>
+        <v>9.02466990027051e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>2.654740167533263e-08</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>3.398348269456619e-10</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.805253417197701</v>
+        <v>6.021482839618836</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.6973101559739234, 7.913196678421478]</t>
+          <t>[4.26787112095815, 7.7750945582795215]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>9.915286058870265e-08</v>
+        <v>4.38122871315727e-11</v>
       </c>
       <c r="N3" t="n">
-        <v>1.983057211774053e-07</v>
+        <v>8.76245742631454e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1886842434588463</v>
+        <v>0.04402632347373014</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.6163685286322318, 0.23900004171453926]</t>
+          <t>[-0.2956053147521942, 0.3836579616996545]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.3864383678631347</v>
+        <v>0.7990524616560473</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3864383678631347</v>
+        <v>0.7990524616560473</v>
       </c>
       <c r="S3" t="n">
-        <v>10.17317660988999</v>
+        <v>9.771979053498152</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[8.932285947146102, 11.414067272633883]</t>
+          <t>[8.632180613520966, 10.911777493475338]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7009009009009048</v>
+        <v>23.23603603603626</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.8878078078078193</v>
+        <v>21.97117117117138</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.289609609609629</v>
+        <v>24.50090090090114</v>
       </c>
     </row>
   </sheetData>
